--- a/01_Open_Data/02_Wheat_Data/Wheat_Data_Labels.xlsx
+++ b/01_Open_Data/02_Wheat_Data/Wheat_Data_Labels.xlsx
@@ -413,7 +413,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Milling wheat yield in 2022/23 [dt/ha]</t>
+          <t>Milling wheat yield in 2022/23 [kg/ha]</t>
         </is>
       </c>
     </row>
@@ -425,7 +425,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Milling wheat yield in preceding five growing seasons [dt/ha]</t>
+          <t>Milling wheat yield in preceding five growing seasons [kg/ha]</t>
         </is>
       </c>
     </row>
